--- a/9-project/진행 파일/요구사항 명세서 (최종).xlsx
+++ b/9-project/진행 파일/요구사항 명세서 (최종).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juh22\OneDrive\문서\Github\GIT2021-working\9-project\진행 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6471B16E-8E9E-4CFA-8611-BF4C886E6AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8425DC4-3BFC-4A7B-BB99-62DAB1039CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능!$B$2:$F$7</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>요구사항명</t>
   </si>
@@ -604,16 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>contact us 를 클릭하면 contact us 상세화면이 나온다
-- F&amp;Q /공지사항 화면 전환 네이게이션 버튼이 있다
-- F&amp;Q
-  - 자주 묻는 질문과 답변을 볼 수 있는 화면이 보여진다, 테이블 형태로 보여진다.
-- 공지사항
-  - 어드민에서 작성한 공지사항을 볼 수 있다, 테이블 형태로 보여진다.
-  - 페이지를 넘길 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,10 +626,6 @@
   </si>
   <si>
     <t>Notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact us</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +640,13 @@
     <t>Notice 버튼을 클릭하면 Notice 상세화면이 나온다
 - 상단 : 공지사항을 입력, 수정, 삭제 할 수 있는 테이블을 보여준다.
 - 하단 : F&amp;Q 를 입력, 수정, 삭제 할 수 있는 테이블을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice 를 클릭하면 Notice 상세화면이 나온다
+- 공지사항
+  - 어드민에서 작성한 공지사항을 볼 수 있다, 테이블 형태로 보여진다.
+  - 페이지를 넘길 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,6 +1129,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,12 +1214,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,70 +1230,6 @@
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1546,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="103" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="103" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1594,15 +1598,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1611,7 +1615,7 @@
       <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -1620,7 +1624,7 @@
       <c r="E4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -1634,19 +1638,19 @@
       <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="55"/>
+      <c r="G5" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1654,16 +1658,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1683,7 +1687,7 @@
       <c r="E7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
@@ -1702,9 +1706,9 @@
         <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="25" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1729,7 @@
       <c r="E9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="25" t="s">
         <v>5</v>
       </c>
@@ -1746,21 +1750,21 @@
       <c r="E10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -1769,7 +1773,7 @@
       <c r="B12" s="15">
         <v>2</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1778,7 +1782,7 @@
       <c r="E12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="25" t="s">
@@ -1792,14 +1796,14 @@
       <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="25" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="E14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="25" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1845,7 @@
       <c r="E15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="25" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1866,7 @@
       <c r="E16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="25" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1887,7 @@
       <c r="E17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="25" t="s">
         <v>5</v>
       </c>
@@ -1904,21 +1908,21 @@
       <c r="E18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="31"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -1933,10 +1937,10 @@
       <c r="D20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -1954,10 +1958,10 @@
       <c r="D21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="53"/>
+      <c r="E21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="48"/>
       <c r="G21" s="25" t="s">
         <v>5</v>
       </c>
@@ -1975,10 +1979,10 @@
       <c r="D22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="25" t="s">
         <v>5</v>
       </c>
@@ -1996,10 +2000,10 @@
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="25" t="s">
         <v>5</v>
       </c>
@@ -2017,10 +2021,10 @@
       <c r="D24" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="25" t="s">
         <v>5</v>
       </c>
@@ -2038,32 +2042,32 @@
       <c r="D25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="53"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="57" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+    <row r="26" spans="1:7" s="33" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
         <v>7</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="34">
         <v>3</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="60" t="s">
+      <c r="C26" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2075,18 +2079,18 @@
     </sortState>
   </autoFilter>
   <mergeCells count="12">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="F20:F26"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
